--- a/docs/Gantt_chart.xlsx
+++ b/docs/Gantt_chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semester_project_git\2022-msc-sem-proj-nseemann\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAB0584-A039-455D-BFCB-E89B2928BE1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4B252F-1A10-4A1E-9A36-EC6BE63319BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -412,18 +412,6 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
@@ -438,19 +426,7 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -483,6 +459,30 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -875,7 +875,7 @@
   <dimension ref="A3:AD42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y24" sqref="Y24"/>
+      <selection activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -885,42 +885,42 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="72"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="B4" s="22">
+      <c r="B4" s="68">
         <v>44835</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="22">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="68">
         <v>44866</v>
       </c>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="23">
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="71"/>
+      <c r="S4" s="67">
         <v>44896</v>
       </c>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42"/>
+      <c r="T4" s="68"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="34"/>
+      <c r="Y4" s="34"/>
+      <c r="Z4" s="34"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
@@ -983,11 +983,11 @@
       <c r="U5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="V5" s="28"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="28"/>
-      <c r="Y5" s="28"/>
-      <c r="Z5" s="28"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="24"/>
+      <c r="X5" s="24"/>
+      <c r="Y5" s="24"/>
+      <c r="Z5" s="24"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
@@ -1072,1053 +1072,1054 @@
         <f t="shared" si="0"/>
         <v>44904.5</v>
       </c>
-      <c r="V6" s="41"/>
-      <c r="W6" s="41"/>
-      <c r="X6" s="41"/>
-      <c r="Y6" s="41"/>
-      <c r="Z6" s="41"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="33"/>
+      <c r="Z6" s="33"/>
       <c r="AA6" s="8"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="45"/>
-      <c r="V7" s="27"/>
-      <c r="W7" s="27"/>
-      <c r="X7" s="27"/>
-      <c r="Y7" s="27"/>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="31"/>
-      <c r="AB7" s="31"/>
-      <c r="AC7" s="31"/>
-      <c r="AD7" s="31"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="23"/>
+      <c r="Z7" s="23"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="27"/>
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="27"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="27"/>
-      <c r="W8" s="24"/>
-      <c r="X8" s="27"/>
-      <c r="Y8" s="27"/>
-      <c r="Z8" s="27"/>
-      <c r="AA8" s="31"/>
-      <c r="AB8" s="31"/>
-      <c r="AC8" s="31"/>
-      <c r="AD8" s="31"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="23"/>
+      <c r="AA8" s="27"/>
+      <c r="AB8" s="27"/>
+      <c r="AC8" s="27"/>
+      <c r="AD8" s="27"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="44"/>
-      <c r="S9" s="44"/>
-      <c r="T9" s="44"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="27"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="27"/>
-      <c r="Z9" s="27"/>
-      <c r="AA9" s="31"/>
-      <c r="AB9" s="31"/>
-      <c r="AC9" s="31"/>
-      <c r="AD9" s="31"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="23"/>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="27"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="44"/>
-      <c r="S10" s="44"/>
-      <c r="T10" s="44"/>
-      <c r="U10" s="45"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="27"/>
-      <c r="Y10" s="27"/>
-      <c r="Z10" s="27"/>
-      <c r="AA10" s="31"/>
-      <c r="AB10" s="31"/>
-      <c r="AC10" s="31"/>
-      <c r="AD10" s="31"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="23"/>
+      <c r="Y10" s="23"/>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="27"/>
+      <c r="AB10" s="27"/>
+      <c r="AC10" s="27"/>
+      <c r="AD10" s="27"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="44"/>
-      <c r="S11" s="44"/>
-      <c r="T11" s="44"/>
-      <c r="U11" s="45"/>
-      <c r="V11" s="27"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="27"/>
-      <c r="Y11" s="27"/>
-      <c r="Z11" s="27"/>
-      <c r="AA11" s="31"/>
-      <c r="AB11" s="31"/>
-      <c r="AC11" s="31"/>
-      <c r="AD11" s="31"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="23"/>
+      <c r="Y11" s="23"/>
+      <c r="Z11" s="23"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="27"/>
+      <c r="AC11" s="27"/>
+      <c r="AD11" s="27"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="44"/>
-      <c r="S12" s="44"/>
-      <c r="T12" s="44"/>
-      <c r="U12" s="45"/>
-      <c r="V12" s="27"/>
-      <c r="W12" s="24"/>
-      <c r="X12" s="27"/>
-      <c r="Y12" s="27"/>
-      <c r="Z12" s="27"/>
-      <c r="AA12" s="31"/>
-      <c r="AB12" s="31"/>
-      <c r="AC12" s="31"/>
-      <c r="AD12" s="31"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="23"/>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="27"/>
+      <c r="AC12" s="27"/>
+      <c r="AD12" s="27"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="44"/>
-      <c r="S13" s="44"/>
-      <c r="T13" s="44"/>
-      <c r="U13" s="49"/>
-      <c r="V13" s="27"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="27"/>
-      <c r="Y13" s="27"/>
-      <c r="Z13" s="27"/>
-      <c r="AA13" s="31"/>
-      <c r="AB13" s="31"/>
-      <c r="AC13" s="31"/>
-      <c r="AD13" s="31"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="23"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="23"/>
+      <c r="Y13" s="23"/>
+      <c r="Z13" s="23"/>
+      <c r="AA13" s="27"/>
+      <c r="AB13" s="27"/>
+      <c r="AC13" s="27"/>
+      <c r="AD13" s="27"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="44"/>
-      <c r="P14" s="44"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="44"/>
-      <c r="S14" s="44"/>
-      <c r="T14" s="44"/>
-      <c r="U14" s="49"/>
-      <c r="V14" s="27"/>
-      <c r="W14" s="24"/>
-      <c r="X14" s="27"/>
-      <c r="Y14" s="27"/>
-      <c r="Z14" s="27"/>
-      <c r="AA14" s="31"/>
-      <c r="AB14" s="31"/>
-      <c r="AC14" s="31"/>
-      <c r="AD14" s="31"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="41"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="23"/>
+      <c r="Z14" s="23"/>
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="27"/>
+      <c r="AC14" s="27"/>
+      <c r="AD14" s="27"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="44"/>
-      <c r="S15" s="44"/>
-      <c r="T15" s="44"/>
-      <c r="U15" s="49"/>
-      <c r="V15" s="27"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="27"/>
-      <c r="Y15" s="27"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="31"/>
-      <c r="AB15" s="31"/>
-      <c r="AC15" s="31"/>
-      <c r="AD15" s="31"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="41"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="23"/>
+      <c r="Y15" s="23"/>
+      <c r="Z15" s="23"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="27"/>
+      <c r="AC15" s="27"/>
+      <c r="AD15" s="27"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="44"/>
-      <c r="S16" s="44"/>
-      <c r="T16" s="44"/>
-      <c r="U16" s="45"/>
-      <c r="V16" s="27"/>
-      <c r="W16" s="24"/>
-      <c r="X16" s="27"/>
-      <c r="Y16" s="27"/>
-      <c r="Z16" s="27"/>
-      <c r="AA16" s="31"/>
-      <c r="AB16" s="31"/>
-      <c r="AC16" s="31"/>
-      <c r="AD16" s="31"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="23"/>
+      <c r="Z16" s="23"/>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="27"/>
+      <c r="AC16" s="27"/>
+      <c r="AD16" s="27"/>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="44"/>
-      <c r="S17" s="44"/>
-      <c r="T17" s="44"/>
-      <c r="U17" s="45"/>
-      <c r="V17" s="27"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="27"/>
-      <c r="Y17" s="27"/>
-      <c r="Z17" s="27"/>
-      <c r="AA17" s="31"/>
-      <c r="AB17" s="31"/>
-      <c r="AC17" s="31"/>
-      <c r="AD17" s="31"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="23"/>
+      <c r="Y17" s="23"/>
+      <c r="Z17" s="23"/>
+      <c r="AA17" s="27"/>
+      <c r="AB17" s="27"/>
+      <c r="AC17" s="27"/>
+      <c r="AD17" s="27"/>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="44"/>
-      <c r="S18" s="44"/>
-      <c r="T18" s="44"/>
-      <c r="U18" s="45"/>
-      <c r="V18" s="27"/>
-      <c r="W18" s="24"/>
-      <c r="X18" s="27"/>
-      <c r="Y18" s="27"/>
-      <c r="Z18" s="27"/>
-      <c r="AA18" s="31"/>
-      <c r="AB18" s="31"/>
-      <c r="AC18" s="31"/>
-      <c r="AD18" s="31"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="23"/>
+      <c r="Y18" s="23"/>
+      <c r="Z18" s="23"/>
+      <c r="AA18" s="27"/>
+      <c r="AB18" s="27"/>
+      <c r="AC18" s="27"/>
+      <c r="AD18" s="27"/>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="44"/>
-      <c r="S19" s="44"/>
-      <c r="T19" s="44"/>
-      <c r="U19" s="45"/>
-      <c r="V19" s="27"/>
-      <c r="W19" s="24"/>
-      <c r="X19" s="27"/>
-      <c r="Y19" s="27"/>
-      <c r="Z19" s="27"/>
-      <c r="AA19" s="31"/>
-      <c r="AB19" s="31"/>
-      <c r="AC19" s="31"/>
-      <c r="AD19" s="31"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="23"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="23"/>
+      <c r="Y19" s="23"/>
+      <c r="Z19" s="23"/>
+      <c r="AA19" s="27"/>
+      <c r="AB19" s="27"/>
+      <c r="AC19" s="27"/>
+      <c r="AD19" s="27"/>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="44"/>
-      <c r="S20" s="44"/>
-      <c r="T20" s="44"/>
-      <c r="U20" s="45"/>
-      <c r="V20" s="27"/>
-      <c r="W20" s="24"/>
-      <c r="X20" s="27"/>
-      <c r="Y20" s="27"/>
-      <c r="Z20" s="27"/>
-      <c r="AA20" s="31"/>
-      <c r="AB20" s="31"/>
-      <c r="AC20" s="31"/>
-      <c r="AD20" s="31"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="23"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="23"/>
+      <c r="Y20" s="23"/>
+      <c r="Z20" s="23"/>
+      <c r="AA20" s="27"/>
+      <c r="AB20" s="27"/>
+      <c r="AC20" s="27"/>
+      <c r="AD20" s="27"/>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="46"/>
-      <c r="S21" s="44"/>
-      <c r="T21" s="44"/>
-      <c r="U21" s="45"/>
-      <c r="V21" s="27"/>
-      <c r="W21" s="24"/>
-      <c r="X21" s="27"/>
-      <c r="Y21" s="27"/>
-      <c r="Z21" s="27"/>
-      <c r="AA21" s="31"/>
-      <c r="AB21" s="31"/>
-      <c r="AC21" s="31"/>
-      <c r="AD21" s="31"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="23"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="23"/>
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="23"/>
+      <c r="AA21" s="27"/>
+      <c r="AB21" s="27"/>
+      <c r="AC21" s="27"/>
+      <c r="AD21" s="27"/>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="44"/>
-      <c r="S22" s="44"/>
-      <c r="T22" s="44"/>
-      <c r="U22" s="45"/>
-      <c r="V22" s="27"/>
-      <c r="W22" s="24"/>
-      <c r="X22" s="27"/>
-      <c r="Y22" s="27"/>
-      <c r="Z22" s="27"/>
-      <c r="AA22" s="31"/>
-      <c r="AB22" s="31"/>
-      <c r="AC22" s="31"/>
-      <c r="AD22" s="31"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="37"/>
+      <c r="V22" s="23"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="23"/>
+      <c r="Y22" s="23"/>
+      <c r="Z22" s="23"/>
+      <c r="AA22" s="27"/>
+      <c r="AB22" s="27"/>
+      <c r="AC22" s="27"/>
+      <c r="AD22" s="27"/>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="43"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="64"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="44"/>
-      <c r="S23" s="46"/>
-      <c r="T23" s="46"/>
-      <c r="U23" s="45"/>
-      <c r="V23" s="28"/>
-      <c r="W23" s="24"/>
-      <c r="X23" s="27"/>
-      <c r="Y23" s="27"/>
-      <c r="Z23" s="27"/>
-      <c r="AA23" s="31"/>
-      <c r="AB23" s="31"/>
-      <c r="AC23" s="31"/>
-      <c r="AD23" s="31"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="38"/>
+      <c r="T23" s="38"/>
+      <c r="U23" s="37"/>
+      <c r="V23" s="24"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="23"/>
+      <c r="Y23" s="23"/>
+      <c r="Z23" s="23"/>
+      <c r="AA23" s="27"/>
+      <c r="AB23" s="27"/>
+      <c r="AC23" s="27"/>
+      <c r="AD23" s="27"/>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="43"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="64"/>
-      <c r="M24" s="64"/>
-      <c r="N24" s="64"/>
-      <c r="O24" s="44"/>
-      <c r="P24" s="44"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="44"/>
-      <c r="S24" s="46"/>
-      <c r="T24" s="46"/>
-      <c r="U24" s="45"/>
-      <c r="V24" s="28"/>
-      <c r="W24" s="24"/>
-      <c r="X24" s="27"/>
-      <c r="Y24" s="27"/>
-      <c r="Z24" s="27"/>
-      <c r="AA24" s="31"/>
-      <c r="AB24" s="31"/>
-      <c r="AC24" s="31"/>
-      <c r="AD24" s="31"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="38"/>
+      <c r="T24" s="38"/>
+      <c r="U24" s="37"/>
+      <c r="V24" s="24"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="23"/>
+      <c r="Y24" s="23"/>
+      <c r="Z24" s="23"/>
+      <c r="AA24" s="27"/>
+      <c r="AB24" s="27"/>
+      <c r="AC24" s="27"/>
+      <c r="AD24" s="27"/>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="43"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="64"/>
-      <c r="O25" s="64"/>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="44"/>
-      <c r="S25" s="46"/>
-      <c r="T25" s="46"/>
-      <c r="U25" s="45"/>
-      <c r="V25" s="28"/>
-      <c r="W25" s="24"/>
-      <c r="X25" s="27"/>
-      <c r="Y25" s="27"/>
-      <c r="Z25" s="27"/>
-      <c r="AA25" s="31"/>
-      <c r="AB25" s="31"/>
-      <c r="AC25" s="31"/>
-      <c r="AD25" s="31"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="38"/>
+      <c r="U25" s="37"/>
+      <c r="V25" s="24"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="23"/>
+      <c r="Y25" s="23"/>
+      <c r="Z25" s="23"/>
+      <c r="AA25" s="27"/>
+      <c r="AB25" s="27"/>
+      <c r="AC25" s="27"/>
+      <c r="AD25" s="27"/>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="43"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="64"/>
-      <c r="O26" s="64"/>
-      <c r="P26" s="44"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="44"/>
-      <c r="S26" s="44"/>
-      <c r="T26" s="44"/>
-      <c r="U26" s="45"/>
-      <c r="V26" s="28"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="56"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="24"/>
       <c r="W26" s="14"/>
-      <c r="X26" s="27"/>
-      <c r="Y26" s="27"/>
-      <c r="Z26" s="27"/>
-      <c r="AA26" s="31"/>
-      <c r="AB26" s="31"/>
-      <c r="AC26" s="31"/>
-      <c r="AD26" s="31"/>
+      <c r="X26" s="23"/>
+      <c r="Y26" s="23"/>
+      <c r="Z26" s="23"/>
+      <c r="AA26" s="27"/>
+      <c r="AB26" s="27"/>
+      <c r="AC26" s="27"/>
+      <c r="AD26" s="27"/>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="43"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="51"/>
-      <c r="O27" s="71"/>
-      <c r="P27" s="71"/>
-      <c r="Q27" s="72"/>
-      <c r="R27" s="51"/>
-      <c r="S27" s="51"/>
-      <c r="T27" s="51"/>
-      <c r="U27" s="52"/>
-      <c r="V27" s="29"/>
-      <c r="W27" s="25"/>
-      <c r="X27" s="29"/>
-      <c r="Y27" s="27"/>
-      <c r="Z27" s="27"/>
-      <c r="AA27" s="31"/>
-      <c r="AB27" s="31"/>
-      <c r="AC27" s="31"/>
-      <c r="AD27" s="31"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="63"/>
+      <c r="P27" s="63"/>
+      <c r="Q27" s="64"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="43"/>
+      <c r="T27" s="43"/>
+      <c r="U27" s="44"/>
+      <c r="V27" s="25"/>
+      <c r="W27" s="21"/>
+      <c r="X27" s="25"/>
+      <c r="Y27" s="23"/>
+      <c r="Z27" s="23"/>
+      <c r="AA27" s="27"/>
+      <c r="AB27" s="27"/>
+      <c r="AC27" s="27"/>
+      <c r="AD27" s="27"/>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="58"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="62"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="60"/>
-      <c r="M28" s="60"/>
-      <c r="N28" s="60"/>
-      <c r="O28" s="60"/>
-      <c r="P28" s="60"/>
-      <c r="Q28" s="61"/>
-      <c r="R28" s="60"/>
-      <c r="S28" s="60"/>
-      <c r="T28" s="53"/>
-      <c r="U28" s="54"/>
-      <c r="V28" s="28"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="53"/>
+      <c r="R28" s="52"/>
+      <c r="S28" s="52"/>
+      <c r="T28" s="45"/>
+      <c r="U28" s="46"/>
+      <c r="V28" s="24"/>
       <c r="W28" s="14"/>
-      <c r="X28" s="27"/>
-      <c r="Y28" s="27"/>
-      <c r="Z28" s="27"/>
-      <c r="AA28" s="31"/>
-      <c r="AB28" s="31"/>
-      <c r="AC28" s="31"/>
-      <c r="AD28" s="31"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="23"/>
+      <c r="Z28" s="23"/>
+      <c r="AA28" s="27"/>
+      <c r="AB28" s="27"/>
+      <c r="AC28" s="27"/>
+      <c r="AD28" s="27"/>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="58"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="59"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="59"/>
-      <c r="O29" s="59"/>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="63"/>
-      <c r="R29" s="59"/>
-      <c r="S29" s="59"/>
-      <c r="T29" s="53"/>
-      <c r="U29" s="45"/>
-      <c r="V29" s="30"/>
-      <c r="W29" s="26"/>
-      <c r="X29" s="30"/>
-      <c r="Y29" s="27"/>
-      <c r="Z29" s="27"/>
-      <c r="AA29" s="31"/>
-      <c r="AB29" s="31"/>
-      <c r="AC29" s="31"/>
-      <c r="AD29" s="31"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="51"/>
+      <c r="Q29" s="55"/>
+      <c r="R29" s="51"/>
+      <c r="S29" s="51"/>
+      <c r="T29" s="45"/>
+      <c r="U29" s="37"/>
+      <c r="V29" s="26"/>
+      <c r="W29" s="22"/>
+      <c r="X29" s="26"/>
+      <c r="Y29" s="23"/>
+      <c r="Z29" s="23"/>
+      <c r="AA29" s="27"/>
+      <c r="AB29" s="27"/>
+      <c r="AC29" s="27"/>
+      <c r="AD29" s="27"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="43"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="44"/>
-      <c r="M30" s="44"/>
-      <c r="N30" s="44"/>
-      <c r="O30" s="44"/>
-      <c r="P30" s="44"/>
-      <c r="Q30" s="45"/>
-      <c r="R30" s="44"/>
-      <c r="S30" s="59"/>
-      <c r="T30" s="59"/>
-      <c r="U30" s="63"/>
-      <c r="V30" s="30"/>
-      <c r="W30" s="26"/>
-      <c r="X30" s="30"/>
-      <c r="Y30" s="27"/>
-      <c r="Z30" s="27"/>
-      <c r="AA30" s="31"/>
-      <c r="AB30" s="31"/>
-      <c r="AC30" s="31"/>
-      <c r="AD30" s="31"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="37"/>
+      <c r="R30" s="36"/>
+      <c r="S30" s="51"/>
+      <c r="T30" s="51"/>
+      <c r="U30" s="55"/>
+      <c r="V30" s="26"/>
+      <c r="W30" s="22"/>
+      <c r="X30" s="26"/>
+      <c r="Y30" s="23"/>
+      <c r="Z30" s="23"/>
+      <c r="AA30" s="27"/>
+      <c r="AB30" s="27"/>
+      <c r="AC30" s="27"/>
+      <c r="AD30" s="27"/>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="43"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="44"/>
-      <c r="M31" s="44"/>
-      <c r="N31" s="44"/>
-      <c r="O31" s="44"/>
-      <c r="P31" s="44"/>
-      <c r="Q31" s="45"/>
-      <c r="R31" s="44"/>
-      <c r="S31" s="59"/>
-      <c r="T31" s="59"/>
-      <c r="U31" s="63"/>
-      <c r="V31" s="28"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="37"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="51"/>
+      <c r="T31" s="51"/>
+      <c r="U31" s="55"/>
+      <c r="V31" s="24"/>
       <c r="W31" s="14"/>
-      <c r="X31" s="27"/>
-      <c r="Y31" s="30"/>
-      <c r="Z31" s="30"/>
-      <c r="AA31" s="31"/>
-      <c r="AB31" s="31"/>
-      <c r="AC31" s="31"/>
-      <c r="AD31" s="31"/>
+      <c r="X31" s="23"/>
+      <c r="Y31" s="26"/>
+      <c r="Z31" s="26"/>
+      <c r="AA31" s="27"/>
+      <c r="AB31" s="27"/>
+      <c r="AC31" s="27"/>
+      <c r="AD31" s="27"/>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="33"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="33"/>
-      <c r="O32" s="33"/>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="35"/>
-      <c r="R32" s="33"/>
-      <c r="S32" s="33"/>
-      <c r="T32" s="33"/>
-      <c r="U32" s="35"/>
-      <c r="V32" s="27"/>
-      <c r="W32" s="24"/>
-      <c r="X32" s="27"/>
-      <c r="Y32" s="27"/>
-      <c r="Z32" s="27"/>
-      <c r="AA32" s="31"/>
-      <c r="AB32" s="31"/>
-      <c r="AC32" s="31"/>
-      <c r="AD32" s="31"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="31"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="29"/>
+      <c r="U32" s="31"/>
+      <c r="V32" s="23"/>
+      <c r="W32" s="20"/>
+      <c r="X32" s="23"/>
+      <c r="Y32" s="23"/>
+      <c r="Z32" s="23"/>
+      <c r="AA32" s="27"/>
+      <c r="AB32" s="27"/>
+      <c r="AC32" s="27"/>
+      <c r="AD32" s="27"/>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A33" s="34"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="36" t="s">
+      <c r="A33" s="30"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="33"/>
-      <c r="O33" s="38" t="s">
+      <c r="E33" s="69"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="P33" s="38"/>
-      <c r="Q33" s="37"/>
-      <c r="R33" s="33"/>
-      <c r="S33" s="33"/>
-      <c r="T33" s="33"/>
-      <c r="U33" s="35"/>
-      <c r="V33" s="31"/>
-      <c r="X33" s="31"/>
-      <c r="Y33" s="31"/>
-      <c r="Z33" s="31"/>
-      <c r="AA33" s="31"/>
-      <c r="AB33" s="31"/>
-      <c r="AC33" s="31"/>
-      <c r="AD33" s="31"/>
+      <c r="P33" s="65"/>
+      <c r="Q33" s="66"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="29"/>
+      <c r="T33" s="29"/>
+      <c r="U33" s="31"/>
+      <c r="V33" s="27"/>
+      <c r="X33" s="27"/>
+      <c r="Y33" s="27"/>
+      <c r="Z33" s="27"/>
+      <c r="AA33" s="27"/>
+      <c r="AB33" s="27"/>
+      <c r="AC33" s="27"/>
+      <c r="AD33" s="27"/>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A34" s="34"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="34"/>
-      <c r="N34" s="39"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="39"/>
-      <c r="Q34" s="39"/>
-      <c r="R34" s="34"/>
-      <c r="S34" s="34"/>
-      <c r="T34" s="34"/>
-      <c r="U34" s="35"/>
-      <c r="X34" s="31"/>
-      <c r="Y34" s="31"/>
-      <c r="Z34" s="31"/>
-      <c r="AA34" s="31"/>
-      <c r="AB34" s="31"/>
-      <c r="AC34" s="31"/>
-      <c r="AD34" s="31"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="32"/>
+      <c r="R34" s="30"/>
+      <c r="S34" s="30"/>
+      <c r="T34" s="30"/>
+      <c r="U34" s="31"/>
+      <c r="X34" s="27"/>
+      <c r="Y34" s="27"/>
+      <c r="Z34" s="27"/>
+      <c r="AA34" s="27"/>
+      <c r="AB34" s="27"/>
+      <c r="AC34" s="27"/>
+      <c r="AD34" s="27"/>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A35" s="34"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="36" t="s">
+      <c r="A35" s="30"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="34"/>
-      <c r="N35" s="34"/>
-      <c r="O35" s="34"/>
-      <c r="P35" s="34"/>
-      <c r="Q35" s="38" t="s">
+      <c r="F35" s="69"/>
+      <c r="G35" s="69"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="66"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="30"/>
+      <c r="Q35" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="R35" s="38"/>
-      <c r="S35" s="38"/>
-      <c r="T35" s="38"/>
-      <c r="U35" s="37"/>
-      <c r="X35" s="31"/>
-      <c r="Y35" s="31"/>
-      <c r="Z35" s="31"/>
-      <c r="AA35" s="31"/>
-      <c r="AB35" s="31"/>
-      <c r="AC35" s="31"/>
-      <c r="AD35" s="31"/>
+      <c r="R35" s="65"/>
+      <c r="S35" s="65"/>
+      <c r="T35" s="65"/>
+      <c r="U35" s="66"/>
+      <c r="X35" s="27"/>
+      <c r="Y35" s="27"/>
+      <c r="Z35" s="27"/>
+      <c r="AA35" s="27"/>
+      <c r="AB35" s="27"/>
+      <c r="AC35" s="27"/>
+      <c r="AD35" s="27"/>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="X36" s="31"/>
-      <c r="Y36" s="31"/>
-      <c r="Z36" s="31"/>
-      <c r="AA36" s="31"/>
-      <c r="AB36" s="31"/>
-      <c r="AC36" s="31"/>
-      <c r="AD36" s="31"/>
+      <c r="X36" s="27"/>
+      <c r="Y36" s="27"/>
+      <c r="Z36" s="27"/>
+      <c r="AA36" s="27"/>
+      <c r="AB36" s="27"/>
+      <c r="AC36" s="27"/>
+      <c r="AD36" s="27"/>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="X37" s="31"/>
-      <c r="Y37" s="31"/>
-      <c r="Z37" s="31"/>
-      <c r="AA37" s="31"/>
-      <c r="AB37" s="31"/>
-      <c r="AC37" s="31"/>
-      <c r="AD37" s="31"/>
+      <c r="X37" s="27"/>
+      <c r="Y37" s="27"/>
+      <c r="Z37" s="27"/>
+      <c r="AA37" s="27"/>
+      <c r="AB37" s="27"/>
+      <c r="AC37" s="27"/>
+      <c r="AD37" s="27"/>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="X38" s="31"/>
-      <c r="Y38" s="31"/>
-      <c r="Z38" s="31"/>
-      <c r="AA38" s="31"/>
-      <c r="AB38" s="31"/>
-      <c r="AC38" s="31"/>
-      <c r="AD38" s="31"/>
+      <c r="X38" s="27"/>
+      <c r="Y38" s="27"/>
+      <c r="Z38" s="27"/>
+      <c r="AA38" s="27"/>
+      <c r="AB38" s="27"/>
+      <c r="AC38" s="27"/>
+      <c r="AD38" s="27"/>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="X39" s="31"/>
-      <c r="Y39" s="31"/>
-      <c r="Z39" s="31"/>
-      <c r="AA39" s="31"/>
-      <c r="AB39" s="31"/>
-      <c r="AC39" s="31"/>
-      <c r="AD39" s="31"/>
+      <c r="X39" s="27"/>
+      <c r="Y39" s="27"/>
+      <c r="Z39" s="27"/>
+      <c r="AA39" s="27"/>
+      <c r="AB39" s="27"/>
+      <c r="AC39" s="27"/>
+      <c r="AD39" s="27"/>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="X40" s="31"/>
-      <c r="Y40" s="31"/>
-      <c r="Z40" s="31"/>
-      <c r="AA40" s="31"/>
-      <c r="AB40" s="31"/>
-      <c r="AC40" s="31"/>
-      <c r="AD40" s="31"/>
+      <c r="X40" s="27"/>
+      <c r="Y40" s="27"/>
+      <c r="Z40" s="27"/>
+      <c r="AA40" s="27"/>
+      <c r="AB40" s="27"/>
+      <c r="AC40" s="27"/>
+      <c r="AD40" s="27"/>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="X41" s="31"/>
-      <c r="Y41" s="31"/>
-      <c r="Z41" s="31"/>
-      <c r="AA41" s="31"/>
-      <c r="AB41" s="31"/>
-      <c r="AC41" s="31"/>
-      <c r="AD41" s="31"/>
+      <c r="X41" s="27"/>
+      <c r="Y41" s="27"/>
+      <c r="Z41" s="27"/>
+      <c r="AA41" s="27"/>
+      <c r="AB41" s="27"/>
+      <c r="AC41" s="27"/>
+      <c r="AD41" s="27"/>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="X42" s="31"/>
-      <c r="Y42" s="31"/>
-      <c r="Z42" s="31"/>
-      <c r="AA42" s="31"/>
-      <c r="AB42" s="31"/>
-      <c r="AC42" s="31"/>
-      <c r="AD42" s="31"/>
+      <c r="X42" s="27"/>
+      <c r="Y42" s="27"/>
+      <c r="Z42" s="27"/>
+      <c r="AA42" s="27"/>
+      <c r="AB42" s="27"/>
+      <c r="AC42" s="27"/>
+      <c r="AD42" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="Q3:S3"/>
     <mergeCell ref="Q35:U35"/>
     <mergeCell ref="S4:U4"/>
     <mergeCell ref="E35:I35"/>
@@ -2126,7 +2127,6 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:R4"/>
     <mergeCell ref="D33:G33"/>
-    <mergeCell ref="Q3:S3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/docs/Gantt_chart.xlsx
+++ b/docs/Gantt_chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semester_project_git\2022-msc-sem-proj-nseemann\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4B252F-1A10-4A1E-9A36-EC6BE63319BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C185D6-0E71-44FC-BF48-0BABE7A6EDE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -459,6 +459,9 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -478,9 +481,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -885,37 +885,37 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="72"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="B4" s="68">
+      <c r="B4" s="69">
         <v>44835</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="68">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="69">
         <v>44866</v>
       </c>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="70"/>
-      <c r="Q4" s="70"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="67">
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="68">
         <v>44896</v>
       </c>
-      <c r="T4" s="68"/>
-      <c r="U4" s="68"/>
+      <c r="T4" s="69"/>
+      <c r="U4" s="69"/>
       <c r="V4" s="34"/>
       <c r="W4" s="34"/>
       <c r="X4" s="34"/>
@@ -1959,12 +1959,12 @@
       <c r="A33" s="30"/>
       <c r="B33" s="29"/>
       <c r="C33" s="30"/>
-      <c r="D33" s="69" t="s">
+      <c r="D33" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="E33" s="69"/>
-      <c r="F33" s="69"/>
-      <c r="G33" s="66"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="67"/>
       <c r="H33" s="29"/>
       <c r="I33" s="31"/>
       <c r="J33" s="29"/>
@@ -1972,11 +1972,11 @@
       <c r="L33" s="29"/>
       <c r="M33" s="29"/>
       <c r="N33" s="29"/>
-      <c r="O33" s="65" t="s">
+      <c r="O33" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="P33" s="65"/>
-      <c r="Q33" s="66"/>
+      <c r="P33" s="66"/>
+      <c r="Q33" s="67"/>
       <c r="R33" s="29"/>
       <c r="S33" s="29"/>
       <c r="T33" s="29"/>
@@ -2025,13 +2025,13 @@
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
-      <c r="E35" s="69" t="s">
+      <c r="E35" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="69"/>
-      <c r="G35" s="69"/>
-      <c r="H35" s="69"/>
-      <c r="I35" s="66"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="70"/>
+      <c r="H35" s="70"/>
+      <c r="I35" s="67"/>
       <c r="J35" s="30"/>
       <c r="K35" s="30"/>
       <c r="L35" s="30"/>
@@ -2039,13 +2039,13 @@
       <c r="N35" s="30"/>
       <c r="O35" s="30"/>
       <c r="P35" s="30"/>
-      <c r="Q35" s="65" t="s">
+      <c r="Q35" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="R35" s="65"/>
-      <c r="S35" s="65"/>
-      <c r="T35" s="65"/>
-      <c r="U35" s="66"/>
+      <c r="R35" s="66"/>
+      <c r="S35" s="66"/>
+      <c r="T35" s="66"/>
+      <c r="U35" s="67"/>
       <c r="X35" s="27"/>
       <c r="Y35" s="27"/>
       <c r="Z35" s="27"/>
